--- a/output/mysiadlo/2021/sheets/year_2021.xlsx
+++ b/output/mysiadlo/2021/sheets/year_2021.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>48.84516129032257</v>
+        <v>50.89576809228339</v>
       </c>
       <c r="C2" t="n">
-        <v>38.41290322580646</v>
+        <v>44.39605714668069</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>46.11071428571429</v>
+        <v>50.34698676143647</v>
       </c>
       <c r="C3" t="n">
-        <v>43.03214285714286</v>
+        <v>46.49569705654002</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>52.13548387096775</v>
+        <v>52.61344033895175</v>
       </c>
       <c r="C4" t="n">
-        <v>45.28387096774194</v>
+        <v>47.29139428439838</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>51.71666666666666</v>
+        <v>52.55751551136815</v>
       </c>
       <c r="C5" t="n">
-        <v>45.80666666666666</v>
+        <v>46.71228465649936</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>51.35483870967742</v>
+        <v>52.93802949716824</v>
       </c>
       <c r="C6" t="n">
-        <v>44.35483870967742</v>
+        <v>47.23087080560027</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>53.9</v>
+        <v>54.91073912406611</v>
       </c>
       <c r="C7" t="n">
-        <v>49.21333333333334</v>
+        <v>49.96854366900644</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>55.59677419354839</v>
+        <v>56.81272206224764</v>
       </c>
       <c r="C8" t="n">
-        <v>49.79354838709678</v>
+        <v>50.47223890151986</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56.55483870967743</v>
+        <v>57.18161208467093</v>
       </c>
       <c r="C9" t="n">
-        <v>51.2741935483871</v>
+        <v>51.73290345683897</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>54.55333333333332</v>
+        <v>56.35630623496293</v>
       </c>
       <c r="C10" t="n">
-        <v>47.98333333333333</v>
+        <v>50.38388834023028</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>51.91290322580645</v>
+        <v>54.26047310473373</v>
       </c>
       <c r="C11" t="n">
-        <v>47.34838709677419</v>
+        <v>48.03980245102618</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>53.37</v>
+        <v>55.3020488331361</v>
       </c>
       <c r="C12" t="n">
-        <v>48.64666666666667</v>
+        <v>49.20349504726927</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>52.96129032258064</v>
+        <v>55.04383182278916</v>
       </c>
       <c r="C13" t="n">
-        <v>48.38387096774194</v>
+        <v>49.17561936856772</v>
       </c>
     </row>
   </sheetData>
